--- a/Reports/BOM.xlsx
+++ b/Reports/BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FA15F7-2F15-4658-A65B-63A9DA347FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99D7647-CD4B-4D2C-99B7-0A5DEAE6280F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Link</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,22 @@
   </si>
   <si>
     <t>300 degree servo motor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arduino uno wifi rev2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/Arduino-UNO-WiFi-Rev-2/dp/B07MK598QV/ref=sr_1_1_sspa?crid=3GALJV15W1QTB&amp;dib=eyJ2IjoiMSJ9.hFLtX3XXS-klU1aURNxK1YKV4Hkr-Ljbajmt--YfiqLqCQZAnyCjdH5jdPLd77YEhbAJK0WldLrvuyj5K5PUd5B2BXWZkuJis3D6_kzG0KcjAIofp9aOGhAfR_slKPwdRDllObVzVqmt0AF7zkz8jyDWGegLDuKOvyziLfj8wGr6IEQaTOoWrhzQvACAs_iEvLXnFfsG-Y35xf3KsXwXD5NeADR_O75FjvpRS0u4VOQ.vNe_stegScXiCp1h6_WhMedu7UibiLOxgCykXLiWNxw&amp;dib_tag=se&amp;keywords=arduino+uno+wifi+rev2&amp;qid=1751452771&amp;sprefix=arduino+uno+wifi%2Caps%2C79&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishing rod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.amazon.co.uk/Starvortex-Fishing-45cm-176cm-Telescopic-Beginner/dp/B0DZHG365K/ref=sr_1_8_sspa?crid=2EC86I5L1TJCS&amp;dib=eyJ2IjoiMSJ9.cPMe4HlmcCOp-NbdHW2KnKs6hsG84NsKVDwnfLMbclcTdebz9Z0-Y3axi0rA8D2AnWwkt-g5VcZeCwVMRRm1bRxjh_2EPAbtmf3fglRraMxWrAUTgczBSFwyotnHo2-6hj_-nl2ssUp2hmwJq6hxQ7_xB4Nhss9PseculcjpvbUKhkNT6RcWrJrB1lrxFhzmsYYG0a0JHNsbYn7WAgcXHXjmxZM-xt8rFyyONRqTV_w.PGfdxHGmTZ9g4wS1MBCMvyhAcGR6gwSshy1S9-5c9rE&amp;dib_tag=se&amp;keywords=fishing+rod&amp;qid=1751452942&amp;sprefix=fishing+rod%2Caps%2C80&amp;sr=8-8-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;psc=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -755,213 +771,243 @@
     <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="8">
+        <v>49.8</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C11" s="8">
         <v>10.89</v>
       </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10" t="s">
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="6">
-        <f>SUM(C2:C10)</f>
-        <v>210.34000000000003</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="C12" s="6">
+        <f>SUM(C2:C11)</f>
+        <v>260.14</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="D13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
       <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>8.59</v>
+        <v>44</v>
+      </c>
+      <c r="C14" s="8">
+        <v>19.899999999999999</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>17</v>
+      <c r="E14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>19.29</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>5.99</v>
+        <v>8.59</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>15.74</v>
+        <v>19.29</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>14.99</v>
+        <v>5.99</v>
       </c>
       <c r="D18" s="8">
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19">
-        <v>7.99</v>
+        <v>15.74</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>14.99</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>7.99</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" t="s">
         <v>26</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>5.99</v>
       </c>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="5">
-        <f>SUM(C13:C20)</f>
-        <v>88.46</v>
-      </c>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C23" s="5">
+        <f>SUM(C14:C22)</f>
+        <v>108.35999999999999</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A13:A20"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A14:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" display="https://www.amazon.co.uk/Youmile-MAX31865-Temperature-Thermocouple-Amplifier/dp/B091FH3L9P/ref=sr_1_5?crid=17VS5QW5VEVM2&amp;dib=eyJ2IjoiMSJ9.F0Vojw3UaAv39Nr-4TnV2imUJOPO85MpBWNsFiIo_d8B9OKU62XDk-2PSUyaVTJXnEOp88ZjoIlRE3zPi0_mC7ejG9F9OscEZTEQPGqZ4GtqL054sx0uclM4WONliN8GALgc6Il6JBgilDG86mn92dPcJowh0hbreeLZvCr1t9XcQJZUplHQ6vXE-sUio4cuCsMONw3-Ado4FRnscitFOK7Ywn_ECbPOhKtscwaxL8KQC-xo8y931zkK_6r1AJcyta9JdGTtN3T09GLxcnyFgxW6arwmygza1zr1kcDK0Ws.04a2LBDhhy3k47iJxz6UULY-Wx75mMUWLI39TS5fR-w&amp;dib_tag=se&amp;keywords=PT100+RTD&amp;nsdOptOutParam=true&amp;qid=1733500331&amp;sprefix=pt100+rtd%2Caps%2C78&amp;sr=8-5" xr:uid="{E2529329-6D0D-469A-BE50-DA5045C44A6D}"/>
     <hyperlink ref="E6" r:id="rId2" xr:uid="{613F6350-6581-4E66-B734-113699595325}"/>
-    <hyperlink ref="F13" r:id="rId3" display="https://www.amazon.co.uk/Gikfun-Peristaltic-Connector-Aquarium-Analytic/dp/B01IUVHB8E/ref=asc_df_B01IUVHB8E?mcid=c0a01098a2433fa7946538f6acf929eb&amp;hvocijid=18353174123823808281-B01IUVHB8E-&amp;hvexpln=74&amp;tag=googshopuk-21&amp;linkCode=df0&amp;hvadid=696285193871&amp;hvpos=&amp;hvnetw=g&amp;hvrand=18353174123823808281&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9222618&amp;hvtargid=pla-2281435176658&amp;psc=1&amp;gad_source=1" xr:uid="{FCB9A673-B00F-4CBB-ACEB-2716607D691E}"/>
-    <hyperlink ref="F14" r:id="rId4" display="https://www.amazon.co.uk/Silicone-Meters-LAVMHAB-Flexible-Transfer/dp/B0BGQHFZ94?th=1" xr:uid="{29606EC2-A56D-4EDD-BDC0-CDBF76018FB4}"/>
-    <hyperlink ref="F20" r:id="rId5" display="https://www.amazon.co.uk/Converter-Module-Efficient-Conversion-Compatibility/dp/B0DNJ5BFS2/ref=sr_1_4?crid=279JPXF84TSJQ&amp;dib=eyJ2IjoiMSJ9.2Bb5M9L5wyQGmxtgEHYecYPhwnatGNF3AgLiYWOqnORGwfMHptZ0j0qtUZAq6Z7JFbH6ctH_J-DcxxwwH0SzKslukgaj2TneGqlVYQV0Q_wEsTGYOdHIHRt2sNqaPz_YAt49KgeYmWqO9Ai9t3qGJ9JNTF-LJeasexK6bOomCziLyRHJm6EpLvsfJI71CTMyuHYvYDuoCb_yGiYlykRHgs5h2gt2H4RNGp9A64zwtPsvxngZennGVRTJ0t4idFud5UGE7stBX3jTOGm0_fQGVl_KjcvPc9A115xtzPiljPc.XH6vvph9h5ZRFlP3iASkEUFdqHQLNQISgM30XbFE0zc&amp;dib_tag=se&amp;keywords=12v+to+5v&amp;qid=1748857974&amp;s=computers&amp;sprefix=12v+to+5v%2Ccomputers%2C71&amp;sr=1-4" xr:uid="{2F49CAB5-227B-4D33-9E65-7DFB08AD4E7D}"/>
-    <hyperlink ref="F15" r:id="rId6" display="https://www.amazon.co.uk/sourcing-map-Reversible-Reduction-Electric/dp/B0DPQPPND7?th=1" xr:uid="{C4F989D9-9906-4853-89C2-3B687BA0FAFB}"/>
-    <hyperlink ref="F16" r:id="rId7" display="https://www.amazon.co.uk/sourcing-map-Coupling-Connector-Flexible/dp/B0D424GGW1/ref=sr_1_8_sspa?crid=OPMG985EQ60A&amp;dib=eyJ2IjoiMSJ9.gn-371dHa6kv0vw2KD2ViZCO7EIVPECxXsd0yMzmuj2gwqL3S1eGo4vSarAsUwzKnhkhd30R8TJo00819Pzv1txsLAuM_0wmKZWaxvCfDs8oT2badJe-nln8rCs1170LDVtoZHtK7FOM_QnQz2KKdlLap-bK4gj8ZR1mWIDTZbK9jDFyFjer9GYjwoP-bCjemhaOUrSHYZ1TAhrbHPF_Fx2pxG4IXQdG2Uwz1nNbRZg.fANPd1V8CqLYI0IMnXaOF1tt89OB7crmzgDbwQcQdUM&amp;dib_tag=se&amp;keywords=6mm%2Bto%2B6mm&amp;qid=1748262186&amp;s=diy&amp;sprefix=6mm%2Bto%2B6mm%2Cdiy%2C47&amp;sr=1-8-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;th=1" xr:uid="{96C614A2-4247-4AD5-B12A-A9E0862AEAF6}"/>
-    <hyperlink ref="F17" r:id="rId8" display="https://www.amazon.co.uk/PENO-Digital-Waterproof-Rotation-Brushless/dp/B0BD2LZVYX/ref=sr_1_27?dib=eyJ2IjoiMSJ9.bWh17OiH7M0cZL4yYSAV9L1RECITj08xY3BpVUnoQLzjRwZYGxpLbDmOgwIPeBB4MqV0TUAjt3-Nw8Y8iBfrxG7uZ71o0ZWfZ-jQQQh_qSEJS6lDUDAj7AXRslAWjgmj1XJd2MpXo6Jx1VXybcM7RYIMhBDPhTJaK1-PZK3ub_fIQ8_j0r3KqHMDtZya9kyvMLsiC_3ODiQWjyfCe_r9ZQ-TZrsooT9dlZS61OkDuOy08WGC0gs3KuOvT7cxH61xXL9dhZaHeHn8GykzOlJkh3qe5u28ogrpU4qkfGH5Zkk.sdr94uxziyhCKAvbLvsrnouZx5QzJCCNSZHMxPB5jls&amp;dib_tag=se&amp;keywords=servo+300+degree&amp;qid=1748262564&amp;sr=8-27" xr:uid="{03C8F801-DFBD-4CC1-99BB-0C40F93FE693}"/>
-    <hyperlink ref="F18" r:id="rId9" display="https://www.amazon.co.uk/AMZZN-Conversion-Charging-Suitable-Replacement/dp/B0D62MF4MY/ref=sr_1_3_sspa?dib=eyJ2IjoiMSJ9.hLViJxDuwIuC7fV0ppBoXdCyuCJLVhkJbjjCv6zh_I8ogwppICPOANolir35XdXNaYi7k26-n7-fxDe8Naj_1Ny_2Qj_6VgxIwEauZFZ_ut9f3wmA_e9oTRYxSAAo1zbYnoC07VakToYGRWTp1agefHPG4v2aKpuy60sbaHkFp7yhFFfdBPUtTOVZuMIvLn241Dnd71ratlNAKbyRIOFGcSb_lnFhPA8U9Y-54s-23X1aiknkxd9dfLmSuUcmxJpeOJc_MGH4R6_goJrGzUvxlmTRtHf22pM0CNtbpvkI90.wXzWSjFQV-JTqfGcOQDJsUm3hRWvfXfxRbhG4Okrt3A&amp;dib_tag=se&amp;keywords=gel+blaster+battery&amp;qid=1748263130&amp;sr=8-3-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1" xr:uid="{34880F86-4700-4CFE-BCD8-A04371450417}"/>
-    <hyperlink ref="F19" r:id="rId10" display="https://www.amazon.co.uk/DUBEUYEW-Controller-Module-Stepper-Arduino/dp/B0B4TRWVR8?tag=googhydr-21&amp;source=dsa&amp;hvcampaign=electronics&amp;tag=&amp;ref=&amp;adgrpid=179305608187&amp;hvpone=&amp;hvptwo=&amp;hvadid=750563854683&amp;hvpos=&amp;hvnetw=g&amp;hvrand=16730748333821996368&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=9044962&amp;hvlocphy=1003382&amp;hvtargid=dsa-1463395464853&amp;hydadcr=&amp;mcid=&amp;gad_source=1&amp;gad_campaignid=22332429529&amp;gclid=Cj0KCQjwotDBBhCQARIsAG5pinO31B8i28_m19-DGlbUKXix9DVnAyLXxv8fC8YYMM_QDG0Zi80U_RQaAjEXEALw_wcB" xr:uid="{5CA86783-0B1C-4AFB-8FB5-42438ABAEF24}"/>
-    <hyperlink ref="E13" r:id="rId11" display="https://www.amazon.co.uk/Gikfun-Peristaltic-Connector-Aquarium-Analytic/dp/B01IUVHB8E/ref=asc_df_B01IUVHB8E?mcid=c0a01098a2433fa7946538f6acf929eb&amp;hvocijid=18353174123823808281-B01IUVHB8E-&amp;hvexpln=74&amp;tag=googshopuk-21&amp;linkCode=df0&amp;hvadid=696285193871&amp;hvpos=&amp;hvnetw=g&amp;hvrand=18353174123823808281&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9222618&amp;hvtargid=pla-2281435176658&amp;psc=1&amp;gad_source=1" xr:uid="{37CEFF3B-FDA5-4838-85B4-EE57451641AF}"/>
-    <hyperlink ref="E14" r:id="rId12" display="https://www.amazon.co.uk/Silicone-Meters-LAVMHAB-Flexible-Transfer/dp/B0BGQHFZ94?th=1" xr:uid="{81919D2F-A3B5-4218-98AF-B0EAAC445BAD}"/>
-    <hyperlink ref="E20" r:id="rId13" display="https://www.amazon.co.uk/Converter-Module-Efficient-Conversion-Compatibility/dp/B0DNJ5BFS2/ref=sr_1_4?crid=279JPXF84TSJQ&amp;dib=eyJ2IjoiMSJ9.2Bb5M9L5wyQGmxtgEHYecYPhwnatGNF3AgLiYWOqnORGwfMHptZ0j0qtUZAq6Z7JFbH6ctH_J-DcxxwwH0SzKslukgaj2TneGqlVYQV0Q_wEsTGYOdHIHRt2sNqaPz_YAt49KgeYmWqO9Ai9t3qGJ9JNTF-LJeasexK6bOomCziLyRHJm6EpLvsfJI71CTMyuHYvYDuoCb_yGiYlykRHgs5h2gt2H4RNGp9A64zwtPsvxngZennGVRTJ0t4idFud5UGE7stBX3jTOGm0_fQGVl_KjcvPc9A115xtzPiljPc.XH6vvph9h5ZRFlP3iASkEUFdqHQLNQISgM30XbFE0zc&amp;dib_tag=se&amp;keywords=12v+to+5v&amp;qid=1748857974&amp;s=computers&amp;sprefix=12v+to+5v%2Ccomputers%2C71&amp;sr=1-4" xr:uid="{7628E242-5175-434F-8AC3-A21FF77913C4}"/>
-    <hyperlink ref="E15" r:id="rId14" display="https://www.amazon.co.uk/sourcing-map-Reversible-Reduction-Electric/dp/B0DPQPPND7?th=1" xr:uid="{BAAB92F7-5B4C-420C-8236-C640E7E8A814}"/>
-    <hyperlink ref="E16" r:id="rId15" display="https://www.amazon.co.uk/sourcing-map-Coupling-Connector-Flexible/dp/B0D424GGW1/ref=sr_1_8_sspa?crid=OPMG985EQ60A&amp;dib=eyJ2IjoiMSJ9.gn-371dHa6kv0vw2KD2ViZCO7EIVPECxXsd0yMzmuj2gwqL3S1eGo4vSarAsUwzKnhkhd30R8TJo00819Pzv1txsLAuM_0wmKZWaxvCfDs8oT2badJe-nln8rCs1170LDVtoZHtK7FOM_QnQz2KKdlLap-bK4gj8ZR1mWIDTZbK9jDFyFjer9GYjwoP-bCjemhaOUrSHYZ1TAhrbHPF_Fx2pxG4IXQdG2Uwz1nNbRZg.fANPd1V8CqLYI0IMnXaOF1tt89OB7crmzgDbwQcQdUM&amp;dib_tag=se&amp;keywords=6mm%2Bto%2B6mm&amp;qid=1748262186&amp;s=diy&amp;sprefix=6mm%2Bto%2B6mm%2Cdiy%2C47&amp;sr=1-8-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;th=1" xr:uid="{A2F997F9-3320-4D34-B87A-0B05CFBEEE93}"/>
-    <hyperlink ref="E17" r:id="rId16" display="https://www.amazon.co.uk/PENO-Digital-Waterproof-Rotation-Brushless/dp/B0BD2LZVYX/ref=sr_1_27?dib=eyJ2IjoiMSJ9.bWh17OiH7M0cZL4yYSAV9L1RECITj08xY3BpVUnoQLzjRwZYGxpLbDmOgwIPeBB4MqV0TUAjt3-Nw8Y8iBfrxG7uZ71o0ZWfZ-jQQQh_qSEJS6lDUDAj7AXRslAWjgmj1XJd2MpXo6Jx1VXybcM7RYIMhBDPhTJaK1-PZK3ub_fIQ8_j0r3KqHMDtZya9kyvMLsiC_3ODiQWjyfCe_r9ZQ-TZrsooT9dlZS61OkDuOy08WGC0gs3KuOvT7cxH61xXL9dhZaHeHn8GykzOlJkh3qe5u28ogrpU4qkfGH5Zkk.sdr94uxziyhCKAvbLvsrnouZx5QzJCCNSZHMxPB5jls&amp;dib_tag=se&amp;keywords=servo+300+degree&amp;qid=1748262564&amp;sr=8-27" xr:uid="{6E2D4F17-56BC-481F-AE82-9A3458B57DD9}"/>
-    <hyperlink ref="E18" r:id="rId17" display="https://www.amazon.co.uk/AMZZN-Conversion-Charging-Suitable-Replacement/dp/B0D62MF4MY/ref=sr_1_3_sspa?dib=eyJ2IjoiMSJ9.hLViJxDuwIuC7fV0ppBoXdCyuCJLVhkJbjjCv6zh_I8ogwppICPOANolir35XdXNaYi7k26-n7-fxDe8Naj_1Ny_2Qj_6VgxIwEauZFZ_ut9f3wmA_e9oTRYxSAAo1zbYnoC07VakToYGRWTp1agefHPG4v2aKpuy60sbaHkFp7yhFFfdBPUtTOVZuMIvLn241Dnd71ratlNAKbyRIOFGcSb_lnFhPA8U9Y-54s-23X1aiknkxd9dfLmSuUcmxJpeOJc_MGH4R6_goJrGzUvxlmTRtHf22pM0CNtbpvkI90.wXzWSjFQV-JTqfGcOQDJsUm3hRWvfXfxRbhG4Okrt3A&amp;dib_tag=se&amp;keywords=gel+blaster+battery&amp;qid=1748263130&amp;sr=8-3-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1" xr:uid="{3235FEBC-4800-4052-BE39-61948C3CC425}"/>
-    <hyperlink ref="E19" r:id="rId18" display="https://www.amazon.co.uk/DUBEUYEW-Controller-Module-Stepper-Arduino/dp/B0B4TRWVR8?tag=googhydr-21&amp;source=dsa&amp;hvcampaign=electronics&amp;tag=&amp;ref=&amp;adgrpid=179305608187&amp;hvpone=&amp;hvptwo=&amp;hvadid=750563854683&amp;hvpos=&amp;hvnetw=g&amp;hvrand=16730748333821996368&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=9044962&amp;hvlocphy=1003382&amp;hvtargid=dsa-1463395464853&amp;hydadcr=&amp;mcid=&amp;gad_source=1&amp;gad_campaignid=22332429529&amp;gclid=Cj0KCQjwotDBBhCQARIsAG5pinO31B8i28_m19-DGlbUKXix9DVnAyLXxv8fC8YYMM_QDG0Zi80U_RQaAjEXEALw_wcB" xr:uid="{58D20634-F9BE-4399-B88F-C2BA58299460}"/>
+    <hyperlink ref="F15" r:id="rId3" display="https://www.amazon.co.uk/Gikfun-Peristaltic-Connector-Aquarium-Analytic/dp/B01IUVHB8E/ref=asc_df_B01IUVHB8E?mcid=c0a01098a2433fa7946538f6acf929eb&amp;hvocijid=18353174123823808281-B01IUVHB8E-&amp;hvexpln=74&amp;tag=googshopuk-21&amp;linkCode=df0&amp;hvadid=696285193871&amp;hvpos=&amp;hvnetw=g&amp;hvrand=18353174123823808281&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9222618&amp;hvtargid=pla-2281435176658&amp;psc=1&amp;gad_source=1" xr:uid="{FCB9A673-B00F-4CBB-ACEB-2716607D691E}"/>
+    <hyperlink ref="F16" r:id="rId4" display="https://www.amazon.co.uk/Silicone-Meters-LAVMHAB-Flexible-Transfer/dp/B0BGQHFZ94?th=1" xr:uid="{29606EC2-A56D-4EDD-BDC0-CDBF76018FB4}"/>
+    <hyperlink ref="F22" r:id="rId5" display="https://www.amazon.co.uk/Converter-Module-Efficient-Conversion-Compatibility/dp/B0DNJ5BFS2/ref=sr_1_4?crid=279JPXF84TSJQ&amp;dib=eyJ2IjoiMSJ9.2Bb5M9L5wyQGmxtgEHYecYPhwnatGNF3AgLiYWOqnORGwfMHptZ0j0qtUZAq6Z7JFbH6ctH_J-DcxxwwH0SzKslukgaj2TneGqlVYQV0Q_wEsTGYOdHIHRt2sNqaPz_YAt49KgeYmWqO9Ai9t3qGJ9JNTF-LJeasexK6bOomCziLyRHJm6EpLvsfJI71CTMyuHYvYDuoCb_yGiYlykRHgs5h2gt2H4RNGp9A64zwtPsvxngZennGVRTJ0t4idFud5UGE7stBX3jTOGm0_fQGVl_KjcvPc9A115xtzPiljPc.XH6vvph9h5ZRFlP3iASkEUFdqHQLNQISgM30XbFE0zc&amp;dib_tag=se&amp;keywords=12v+to+5v&amp;qid=1748857974&amp;s=computers&amp;sprefix=12v+to+5v%2Ccomputers%2C71&amp;sr=1-4" xr:uid="{2F49CAB5-227B-4D33-9E65-7DFB08AD4E7D}"/>
+    <hyperlink ref="F17" r:id="rId6" display="https://www.amazon.co.uk/sourcing-map-Reversible-Reduction-Electric/dp/B0DPQPPND7?th=1" xr:uid="{C4F989D9-9906-4853-89C2-3B687BA0FAFB}"/>
+    <hyperlink ref="F18" r:id="rId7" display="https://www.amazon.co.uk/sourcing-map-Coupling-Connector-Flexible/dp/B0D424GGW1/ref=sr_1_8_sspa?crid=OPMG985EQ60A&amp;dib=eyJ2IjoiMSJ9.gn-371dHa6kv0vw2KD2ViZCO7EIVPECxXsd0yMzmuj2gwqL3S1eGo4vSarAsUwzKnhkhd30R8TJo00819Pzv1txsLAuM_0wmKZWaxvCfDs8oT2badJe-nln8rCs1170LDVtoZHtK7FOM_QnQz2KKdlLap-bK4gj8ZR1mWIDTZbK9jDFyFjer9GYjwoP-bCjemhaOUrSHYZ1TAhrbHPF_Fx2pxG4IXQdG2Uwz1nNbRZg.fANPd1V8CqLYI0IMnXaOF1tt89OB7crmzgDbwQcQdUM&amp;dib_tag=se&amp;keywords=6mm%2Bto%2B6mm&amp;qid=1748262186&amp;s=diy&amp;sprefix=6mm%2Bto%2B6mm%2Cdiy%2C47&amp;sr=1-8-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;th=1" xr:uid="{96C614A2-4247-4AD5-B12A-A9E0862AEAF6}"/>
+    <hyperlink ref="F19" r:id="rId8" display="https://www.amazon.co.uk/PENO-Digital-Waterproof-Rotation-Brushless/dp/B0BD2LZVYX/ref=sr_1_27?dib=eyJ2IjoiMSJ9.bWh17OiH7M0cZL4yYSAV9L1RECITj08xY3BpVUnoQLzjRwZYGxpLbDmOgwIPeBB4MqV0TUAjt3-Nw8Y8iBfrxG7uZ71o0ZWfZ-jQQQh_qSEJS6lDUDAj7AXRslAWjgmj1XJd2MpXo6Jx1VXybcM7RYIMhBDPhTJaK1-PZK3ub_fIQ8_j0r3KqHMDtZya9kyvMLsiC_3ODiQWjyfCe_r9ZQ-TZrsooT9dlZS61OkDuOy08WGC0gs3KuOvT7cxH61xXL9dhZaHeHn8GykzOlJkh3qe5u28ogrpU4qkfGH5Zkk.sdr94uxziyhCKAvbLvsrnouZx5QzJCCNSZHMxPB5jls&amp;dib_tag=se&amp;keywords=servo+300+degree&amp;qid=1748262564&amp;sr=8-27" xr:uid="{03C8F801-DFBD-4CC1-99BB-0C40F93FE693}"/>
+    <hyperlink ref="F20" r:id="rId9" display="https://www.amazon.co.uk/AMZZN-Conversion-Charging-Suitable-Replacement/dp/B0D62MF4MY/ref=sr_1_3_sspa?dib=eyJ2IjoiMSJ9.hLViJxDuwIuC7fV0ppBoXdCyuCJLVhkJbjjCv6zh_I8ogwppICPOANolir35XdXNaYi7k26-n7-fxDe8Naj_1Ny_2Qj_6VgxIwEauZFZ_ut9f3wmA_e9oTRYxSAAo1zbYnoC07VakToYGRWTp1agefHPG4v2aKpuy60sbaHkFp7yhFFfdBPUtTOVZuMIvLn241Dnd71ratlNAKbyRIOFGcSb_lnFhPA8U9Y-54s-23X1aiknkxd9dfLmSuUcmxJpeOJc_MGH4R6_goJrGzUvxlmTRtHf22pM0CNtbpvkI90.wXzWSjFQV-JTqfGcOQDJsUm3hRWvfXfxRbhG4Okrt3A&amp;dib_tag=se&amp;keywords=gel+blaster+battery&amp;qid=1748263130&amp;sr=8-3-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1" xr:uid="{34880F86-4700-4CFE-BCD8-A04371450417}"/>
+    <hyperlink ref="F21" r:id="rId10" display="https://www.amazon.co.uk/DUBEUYEW-Controller-Module-Stepper-Arduino/dp/B0B4TRWVR8?tag=googhydr-21&amp;source=dsa&amp;hvcampaign=electronics&amp;tag=&amp;ref=&amp;adgrpid=179305608187&amp;hvpone=&amp;hvptwo=&amp;hvadid=750563854683&amp;hvpos=&amp;hvnetw=g&amp;hvrand=16730748333821996368&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=9044962&amp;hvlocphy=1003382&amp;hvtargid=dsa-1463395464853&amp;hydadcr=&amp;mcid=&amp;gad_source=1&amp;gad_campaignid=22332429529&amp;gclid=Cj0KCQjwotDBBhCQARIsAG5pinO31B8i28_m19-DGlbUKXix9DVnAyLXxv8fC8YYMM_QDG0Zi80U_RQaAjEXEALw_wcB" xr:uid="{5CA86783-0B1C-4AFB-8FB5-42438ABAEF24}"/>
+    <hyperlink ref="E15" r:id="rId11" display="https://www.amazon.co.uk/Gikfun-Peristaltic-Connector-Aquarium-Analytic/dp/B01IUVHB8E/ref=asc_df_B01IUVHB8E?mcid=c0a01098a2433fa7946538f6acf929eb&amp;hvocijid=18353174123823808281-B01IUVHB8E-&amp;hvexpln=74&amp;tag=googshopuk-21&amp;linkCode=df0&amp;hvadid=696285193871&amp;hvpos=&amp;hvnetw=g&amp;hvrand=18353174123823808281&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9222618&amp;hvtargid=pla-2281435176658&amp;psc=1&amp;gad_source=1" xr:uid="{37CEFF3B-FDA5-4838-85B4-EE57451641AF}"/>
+    <hyperlink ref="E16" r:id="rId12" display="https://www.amazon.co.uk/Silicone-Meters-LAVMHAB-Flexible-Transfer/dp/B0BGQHFZ94?th=1" xr:uid="{81919D2F-A3B5-4218-98AF-B0EAAC445BAD}"/>
+    <hyperlink ref="E22" r:id="rId13" display="https://www.amazon.co.uk/Converter-Module-Efficient-Conversion-Compatibility/dp/B0DNJ5BFS2/ref=sr_1_4?crid=279JPXF84TSJQ&amp;dib=eyJ2IjoiMSJ9.2Bb5M9L5wyQGmxtgEHYecYPhwnatGNF3AgLiYWOqnORGwfMHptZ0j0qtUZAq6Z7JFbH6ctH_J-DcxxwwH0SzKslukgaj2TneGqlVYQV0Q_wEsTGYOdHIHRt2sNqaPz_YAt49KgeYmWqO9Ai9t3qGJ9JNTF-LJeasexK6bOomCziLyRHJm6EpLvsfJI71CTMyuHYvYDuoCb_yGiYlykRHgs5h2gt2H4RNGp9A64zwtPsvxngZennGVRTJ0t4idFud5UGE7stBX3jTOGm0_fQGVl_KjcvPc9A115xtzPiljPc.XH6vvph9h5ZRFlP3iASkEUFdqHQLNQISgM30XbFE0zc&amp;dib_tag=se&amp;keywords=12v+to+5v&amp;qid=1748857974&amp;s=computers&amp;sprefix=12v+to+5v%2Ccomputers%2C71&amp;sr=1-4" xr:uid="{7628E242-5175-434F-8AC3-A21FF77913C4}"/>
+    <hyperlink ref="E17" r:id="rId14" display="https://www.amazon.co.uk/sourcing-map-Reversible-Reduction-Electric/dp/B0DPQPPND7?th=1" xr:uid="{BAAB92F7-5B4C-420C-8236-C640E7E8A814}"/>
+    <hyperlink ref="E18" r:id="rId15" display="https://www.amazon.co.uk/sourcing-map-Coupling-Connector-Flexible/dp/B0D424GGW1/ref=sr_1_8_sspa?crid=OPMG985EQ60A&amp;dib=eyJ2IjoiMSJ9.gn-371dHa6kv0vw2KD2ViZCO7EIVPECxXsd0yMzmuj2gwqL3S1eGo4vSarAsUwzKnhkhd30R8TJo00819Pzv1txsLAuM_0wmKZWaxvCfDs8oT2badJe-nln8rCs1170LDVtoZHtK7FOM_QnQz2KKdlLap-bK4gj8ZR1mWIDTZbK9jDFyFjer9GYjwoP-bCjemhaOUrSHYZ1TAhrbHPF_Fx2pxG4IXQdG2Uwz1nNbRZg.fANPd1V8CqLYI0IMnXaOF1tt89OB7crmzgDbwQcQdUM&amp;dib_tag=se&amp;keywords=6mm%2Bto%2B6mm&amp;qid=1748262186&amp;s=diy&amp;sprefix=6mm%2Bto%2B6mm%2Cdiy%2C47&amp;sr=1-8-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9tdGY&amp;th=1" xr:uid="{A2F997F9-3320-4D34-B87A-0B05CFBEEE93}"/>
+    <hyperlink ref="E19" r:id="rId16" display="https://www.amazon.co.uk/PENO-Digital-Waterproof-Rotation-Brushless/dp/B0BD2LZVYX/ref=sr_1_27?dib=eyJ2IjoiMSJ9.bWh17OiH7M0cZL4yYSAV9L1RECITj08xY3BpVUnoQLzjRwZYGxpLbDmOgwIPeBB4MqV0TUAjt3-Nw8Y8iBfrxG7uZ71o0ZWfZ-jQQQh_qSEJS6lDUDAj7AXRslAWjgmj1XJd2MpXo6Jx1VXybcM7RYIMhBDPhTJaK1-PZK3ub_fIQ8_j0r3KqHMDtZya9kyvMLsiC_3ODiQWjyfCe_r9ZQ-TZrsooT9dlZS61OkDuOy08WGC0gs3KuOvT7cxH61xXL9dhZaHeHn8GykzOlJkh3qe5u28ogrpU4qkfGH5Zkk.sdr94uxziyhCKAvbLvsrnouZx5QzJCCNSZHMxPB5jls&amp;dib_tag=se&amp;keywords=servo+300+degree&amp;qid=1748262564&amp;sr=8-27" xr:uid="{6E2D4F17-56BC-481F-AE82-9A3458B57DD9}"/>
+    <hyperlink ref="E20" r:id="rId17" display="https://www.amazon.co.uk/AMZZN-Conversion-Charging-Suitable-Replacement/dp/B0D62MF4MY/ref=sr_1_3_sspa?dib=eyJ2IjoiMSJ9.hLViJxDuwIuC7fV0ppBoXdCyuCJLVhkJbjjCv6zh_I8ogwppICPOANolir35XdXNaYi7k26-n7-fxDe8Naj_1Ny_2Qj_6VgxIwEauZFZ_ut9f3wmA_e9oTRYxSAAo1zbYnoC07VakToYGRWTp1agefHPG4v2aKpuy60sbaHkFp7yhFFfdBPUtTOVZuMIvLn241Dnd71ratlNAKbyRIOFGcSb_lnFhPA8U9Y-54s-23X1aiknkxd9dfLmSuUcmxJpeOJc_MGH4R6_goJrGzUvxlmTRtHf22pM0CNtbpvkI90.wXzWSjFQV-JTqfGcOQDJsUm3hRWvfXfxRbhG4Okrt3A&amp;dib_tag=se&amp;keywords=gel+blaster+battery&amp;qid=1748263130&amp;sr=8-3-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1" xr:uid="{3235FEBC-4800-4052-BE39-61948C3CC425}"/>
+    <hyperlink ref="E21" r:id="rId18" display="https://www.amazon.co.uk/DUBEUYEW-Controller-Module-Stepper-Arduino/dp/B0B4TRWVR8?tag=googhydr-21&amp;source=dsa&amp;hvcampaign=electronics&amp;tag=&amp;ref=&amp;adgrpid=179305608187&amp;hvpone=&amp;hvptwo=&amp;hvadid=750563854683&amp;hvpos=&amp;hvnetw=g&amp;hvrand=16730748333821996368&amp;hvqmt=&amp;hvdev=c&amp;hvdvcmdl=&amp;hvlocint=9044962&amp;hvlocphy=1003382&amp;hvtargid=dsa-1463395464853&amp;hydadcr=&amp;mcid=&amp;gad_source=1&amp;gad_campaignid=22332429529&amp;gclid=Cj0KCQjwotDBBhCQARIsAG5pinO31B8i28_m19-DGlbUKXix9DVnAyLXxv8fC8YYMM_QDG0Zi80U_RQaAjEXEALw_wcB" xr:uid="{58D20634-F9BE-4399-B88F-C2BA58299460}"/>
     <hyperlink ref="E2" r:id="rId19" xr:uid="{F5EB88BD-C271-45FF-81F8-1AFB12FD17F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
